--- a/xlsx/データアナリティクス基礎/模擬問題_データアナリティクス基礎/模擬問題問題1_8月売上データ.xlsx
+++ b/xlsx/データアナリティクス基礎/模擬問題_データアナリティクス基礎/模擬問題問題1_8月売上データ.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\JSTORAGE.jmam.local\users$\JM0835\山地の仕事\書籍\統計検定データサイエンス\データセット\模擬問題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JY810251\python\dataAnalyticsBasic\xlsx\データアナリティクス基礎\模擬問題_データアナリティクス基礎\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163A302E-FDC7-47A4-99A4-FBA63E151763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ADF814-CBC3-4E46-B635-F94E714F75C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10110" yWindow="0" windowWidth="28380" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="担当者別売上データ" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="担当者別売上データ" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">担当者別売上データ!$B$1:$E$192</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">担当者別売上データ!$B$1:$E$192</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="26" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="30">
   <si>
     <t>担当者名</t>
   </si>
@@ -133,6 +137,28 @@
     <t>業種</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>行ラベル</t>
+  </si>
+  <si>
+    <t>総計</t>
+  </si>
+  <si>
+    <t>列ラベル</t>
+  </si>
+  <si>
+    <t>合計 / 8月</t>
+  </si>
+  <si>
+    <t>特化係数</t>
+    <rPh sb="0" eb="2">
+      <t>トッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -196,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -208,6 +234,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -225,10 +256,1608 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="矢口 誠" refreshedDate="45436.59553136574" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="191" xr:uid="{9D22F142-D377-4FC8-A1BC-9D062CBA59E6}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E192" sheet="担当者別売上データ"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="データ番号" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="191"/>
+    </cacheField>
+    <cacheField name="課名" numFmtId="0">
+      <sharedItems count="3">
+        <s v="営業１課"/>
+        <s v="営業２課"/>
+        <s v="営業３課"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="担当者名" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="業種" numFmtId="0">
+      <sharedItems count="9">
+        <s v="給食業　　"/>
+        <s v="ミニスーパー"/>
+        <s v="スーパー　"/>
+        <s v="レストラン"/>
+        <s v="コンビニ　"/>
+        <s v="食料品店　"/>
+        <s v="百貨店　　"/>
+        <s v="食堂業　　"/>
+        <s v="食料品卸業"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="8月_x000a_売上金額（円）" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="37260" maxValue="5775008"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="191">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="T.N."/>
+    <x v="0"/>
+    <n v="1689621"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="0"/>
+    <s v="T.N."/>
+    <x v="1"/>
+    <n v="204516"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="T.N."/>
+    <x v="1"/>
+    <n v="37260"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="0"/>
+    <s v="T.N."/>
+    <x v="2"/>
+    <n v="2621256"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="T.N."/>
+    <x v="3"/>
+    <n v="529894"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="0"/>
+    <s v="T.N."/>
+    <x v="2"/>
+    <n v="193561"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="0"/>
+    <s v="T.N."/>
+    <x v="2"/>
+    <n v="1208170"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="0"/>
+    <s v="T.N."/>
+    <x v="4"/>
+    <n v="687898"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="0"/>
+    <s v="T.N."/>
+    <x v="0"/>
+    <n v="1292415"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="T.N."/>
+    <x v="1"/>
+    <n v="517770"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="0"/>
+    <s v="T.N."/>
+    <x v="5"/>
+    <n v="1030818"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="0"/>
+    <s v="T.N."/>
+    <x v="5"/>
+    <n v="870192"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <s v="T.N."/>
+    <x v="6"/>
+    <n v="368600"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <s v="T.N."/>
+    <x v="5"/>
+    <n v="611583"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="T.N."/>
+    <x v="2"/>
+    <n v="625837"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="0"/>
+    <s v="T.N."/>
+    <x v="2"/>
+    <n v="621136"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="0"/>
+    <s v="T.N."/>
+    <x v="5"/>
+    <n v="805671"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="0"/>
+    <s v="T.N."/>
+    <x v="5"/>
+    <n v="3170901"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="4"/>
+    <n v="228802"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="2"/>
+    <n v="2362517"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="2"/>
+    <n v="318311"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="2"/>
+    <n v="3851925"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="3"/>
+    <n v="319881"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="4"/>
+    <n v="1247505"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="1"/>
+    <n v="920363"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="2"/>
+    <n v="807190"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="2"/>
+    <n v="3131782"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="2"/>
+    <n v="532750"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="2"/>
+    <n v="381925"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="2"/>
+    <n v="659889"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="2"/>
+    <n v="3691969"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="2"/>
+    <n v="321357"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="3"/>
+    <n v="320826"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="2"/>
+    <n v="611962"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="2"/>
+    <n v="1007773"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="4"/>
+    <n v="242309"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="2"/>
+    <n v="452209"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="4"/>
+    <n v="1092537"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="5"/>
+    <n v="1016434"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="5"/>
+    <n v="898966"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="2"/>
+    <n v="923608"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="5"/>
+    <n v="398692"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="5"/>
+    <n v="998491"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="1"/>
+    <n v="1157091"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="1"/>
+    <n v="898204"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="5"/>
+    <n v="1902524"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="5"/>
+    <n v="742753"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="1"/>
+    <n v="612313"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="5"/>
+    <n v="1230369"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="7"/>
+    <n v="383685"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <x v="0"/>
+    <s v="S.U."/>
+    <x v="1"/>
+    <n v="2117548"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <x v="0"/>
+    <s v="Y.T."/>
+    <x v="4"/>
+    <n v="277526"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <x v="0"/>
+    <s v="Y.T."/>
+    <x v="2"/>
+    <n v="701258"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <x v="0"/>
+    <s v="Y.T."/>
+    <x v="2"/>
+    <n v="1241874"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="0"/>
+    <s v="Y.T."/>
+    <x v="2"/>
+    <n v="586974"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <x v="0"/>
+    <s v="Y.T."/>
+    <x v="3"/>
+    <n v="623747"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <x v="0"/>
+    <s v="Y.T."/>
+    <x v="2"/>
+    <n v="5775008"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <x v="0"/>
+    <s v="Y.T."/>
+    <x v="3"/>
+    <n v="623252"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <x v="0"/>
+    <s v="Y.T."/>
+    <x v="2"/>
+    <n v="826199"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <x v="0"/>
+    <s v="Y.T."/>
+    <x v="1"/>
+    <n v="456897"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <x v="0"/>
+    <s v="Y.T."/>
+    <x v="4"/>
+    <n v="121671"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <x v="0"/>
+    <s v="Y.T."/>
+    <x v="2"/>
+    <n v="1298832"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <x v="0"/>
+    <s v="Y.T."/>
+    <x v="1"/>
+    <n v="581353"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <x v="0"/>
+    <s v="Y.T."/>
+    <x v="5"/>
+    <n v="189703"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <x v="0"/>
+    <s v="Y.T."/>
+    <x v="0"/>
+    <n v="500296"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <x v="0"/>
+    <s v="Y.T."/>
+    <x v="8"/>
+    <n v="788423"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <x v="0"/>
+    <s v="Y.T."/>
+    <x v="5"/>
+    <n v="377156"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <x v="0"/>
+    <s v="Y.T."/>
+    <x v="5"/>
+    <n v="486768"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <x v="0"/>
+    <s v="Y.T."/>
+    <x v="5"/>
+    <n v="1010361"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <x v="0"/>
+    <s v="Y.T."/>
+    <x v="7"/>
+    <n v="875116"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <x v="0"/>
+    <s v="Y.T."/>
+    <x v="7"/>
+    <n v="1015878"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <x v="0"/>
+    <s v="Y.T."/>
+    <x v="2"/>
+    <n v="1015610"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <x v="0"/>
+    <s v="Y.T."/>
+    <x v="1"/>
+    <n v="614811"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <x v="0"/>
+    <s v="Y.T."/>
+    <x v="5"/>
+    <n v="524590"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="1"/>
+    <n v="1032633"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="2"/>
+    <n v="567954"/>
+  </r>
+  <r>
+    <n v="77"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="2"/>
+    <n v="1426455"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="1"/>
+    <n v="1886836"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="3"/>
+    <n v="938772"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="5"/>
+    <n v="57752"/>
+  </r>
+  <r>
+    <n v="81"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="2"/>
+    <n v="783692"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="2"/>
+    <n v="626849"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="5"/>
+    <n v="1373923"/>
+  </r>
+  <r>
+    <n v="84"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="0"/>
+    <n v="69951"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="5"/>
+    <n v="602806"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="6"/>
+    <n v="182035"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="5"/>
+    <n v="1271816"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="5"/>
+    <n v="481152"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="2"/>
+    <n v="950591"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="0"/>
+    <n v="105481"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="8"/>
+    <n v="998004"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="2"/>
+    <n v="1232634"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="5"/>
+    <n v="2002421"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="5"/>
+    <n v="870829"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="0"/>
+    <n v="487200"/>
+  </r>
+  <r>
+    <n v="96"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="5"/>
+    <n v="504637"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="2"/>
+    <n v="703876"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="0"/>
+    <n v="324115"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="6"/>
+    <n v="418438"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <x v="1"/>
+    <s v="T.K."/>
+    <x v="5"/>
+    <n v="937542"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="4"/>
+    <n v="102615"/>
+  </r>
+  <r>
+    <n v="102"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="7"/>
+    <n v="1106400"/>
+  </r>
+  <r>
+    <n v="103"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="3"/>
+    <n v="806343"/>
+  </r>
+  <r>
+    <n v="104"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="3"/>
+    <n v="806765"/>
+  </r>
+  <r>
+    <n v="105"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="3"/>
+    <n v="643737"/>
+  </r>
+  <r>
+    <n v="106"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="3"/>
+    <n v="682474"/>
+  </r>
+  <r>
+    <n v="107"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="3"/>
+    <n v="808582"/>
+  </r>
+  <r>
+    <n v="108"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="3"/>
+    <n v="191537"/>
+  </r>
+  <r>
+    <n v="109"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="3"/>
+    <n v="143432"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="3"/>
+    <n v="869181"/>
+  </r>
+  <r>
+    <n v="111"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="3"/>
+    <n v="246089"/>
+  </r>
+  <r>
+    <n v="112"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="2"/>
+    <n v="702794"/>
+  </r>
+  <r>
+    <n v="113"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="3"/>
+    <n v="842967"/>
+  </r>
+  <r>
+    <n v="114"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="3"/>
+    <n v="247141"/>
+  </r>
+  <r>
+    <n v="115"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="3"/>
+    <n v="539976"/>
+  </r>
+  <r>
+    <n v="116"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="3"/>
+    <n v="191881"/>
+  </r>
+  <r>
+    <n v="117"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="3"/>
+    <n v="1805359"/>
+  </r>
+  <r>
+    <n v="118"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="3"/>
+    <n v="221217"/>
+  </r>
+  <r>
+    <n v="119"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="2"/>
+    <n v="301645"/>
+  </r>
+  <r>
+    <n v="120"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="1"/>
+    <n v="339940"/>
+  </r>
+  <r>
+    <n v="121"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="2"/>
+    <n v="655585"/>
+  </r>
+  <r>
+    <n v="122"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="3"/>
+    <n v="739818"/>
+  </r>
+  <r>
+    <n v="123"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="4"/>
+    <n v="291356"/>
+  </r>
+  <r>
+    <n v="124"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="7"/>
+    <n v="803166"/>
+  </r>
+  <r>
+    <n v="125"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="7"/>
+    <n v="1304391"/>
+  </r>
+  <r>
+    <n v="126"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="7"/>
+    <n v="644462"/>
+  </r>
+  <r>
+    <n v="127"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="1"/>
+    <n v="1257084"/>
+  </r>
+  <r>
+    <n v="128"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="5"/>
+    <n v="1091474"/>
+  </r>
+  <r>
+    <n v="129"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="7"/>
+    <n v="1934477"/>
+  </r>
+  <r>
+    <n v="130"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="5"/>
+    <n v="312600"/>
+  </r>
+  <r>
+    <n v="131"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="6"/>
+    <n v="319361"/>
+  </r>
+  <r>
+    <n v="132"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="5"/>
+    <n v="249628"/>
+  </r>
+  <r>
+    <n v="133"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="7"/>
+    <n v="141672"/>
+  </r>
+  <r>
+    <n v="134"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="5"/>
+    <n v="1083496"/>
+  </r>
+  <r>
+    <n v="135"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="5"/>
+    <n v="3247565"/>
+  </r>
+  <r>
+    <n v="136"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="7"/>
+    <n v="833970"/>
+  </r>
+  <r>
+    <n v="137"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="2"/>
+    <n v="3892392"/>
+  </r>
+  <r>
+    <n v="138"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="3"/>
+    <n v="62488"/>
+  </r>
+  <r>
+    <n v="139"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="7"/>
+    <n v="805379"/>
+  </r>
+  <r>
+    <n v="140"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="7"/>
+    <n v="1378322"/>
+  </r>
+  <r>
+    <n v="141"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="2"/>
+    <n v="312691"/>
+  </r>
+  <r>
+    <n v="142"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="3"/>
+    <n v="1337799"/>
+  </r>
+  <r>
+    <n v="143"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="3"/>
+    <n v="680798"/>
+  </r>
+  <r>
+    <n v="144"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="7"/>
+    <n v="189461"/>
+  </r>
+  <r>
+    <n v="145"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="7"/>
+    <n v="1056563"/>
+  </r>
+  <r>
+    <n v="146"/>
+    <x v="1"/>
+    <s v="E.S."/>
+    <x v="3"/>
+    <n v="62621"/>
+  </r>
+  <r>
+    <n v="147"/>
+    <x v="2"/>
+    <s v="M.Y."/>
+    <x v="3"/>
+    <n v="871070"/>
+  </r>
+  <r>
+    <n v="148"/>
+    <x v="2"/>
+    <s v="M.Y."/>
+    <x v="3"/>
+    <n v="644212"/>
+  </r>
+  <r>
+    <n v="149"/>
+    <x v="2"/>
+    <s v="M.Y."/>
+    <x v="5"/>
+    <n v="3196543"/>
+  </r>
+  <r>
+    <n v="150"/>
+    <x v="2"/>
+    <s v="M.Y."/>
+    <x v="3"/>
+    <n v="222170"/>
+  </r>
+  <r>
+    <n v="151"/>
+    <x v="2"/>
+    <s v="M.Y."/>
+    <x v="2"/>
+    <n v="882972"/>
+  </r>
+  <r>
+    <n v="152"/>
+    <x v="2"/>
+    <s v="K.M."/>
+    <x v="2"/>
+    <n v="1307932"/>
+  </r>
+  <r>
+    <n v="153"/>
+    <x v="2"/>
+    <s v="K.M."/>
+    <x v="4"/>
+    <n v="622748"/>
+  </r>
+  <r>
+    <n v="154"/>
+    <x v="2"/>
+    <s v="K.M."/>
+    <x v="2"/>
+    <n v="930494"/>
+  </r>
+  <r>
+    <n v="155"/>
+    <x v="2"/>
+    <s v="K.M."/>
+    <x v="5"/>
+    <n v="1258988"/>
+  </r>
+  <r>
+    <n v="156"/>
+    <x v="2"/>
+    <s v="K.M."/>
+    <x v="3"/>
+    <n v="1371851"/>
+  </r>
+  <r>
+    <n v="157"/>
+    <x v="2"/>
+    <s v="K.M."/>
+    <x v="5"/>
+    <n v="1781941"/>
+  </r>
+  <r>
+    <n v="158"/>
+    <x v="2"/>
+    <s v="K.M."/>
+    <x v="5"/>
+    <n v="724448"/>
+  </r>
+  <r>
+    <n v="159"/>
+    <x v="2"/>
+    <s v="K.M."/>
+    <x v="8"/>
+    <n v="1119758"/>
+  </r>
+  <r>
+    <n v="160"/>
+    <x v="2"/>
+    <s v="K.M."/>
+    <x v="5"/>
+    <n v="3238967"/>
+  </r>
+  <r>
+    <n v="161"/>
+    <x v="2"/>
+    <s v="K.M."/>
+    <x v="8"/>
+    <n v="1856287"/>
+  </r>
+  <r>
+    <n v="162"/>
+    <x v="2"/>
+    <s v="K.M."/>
+    <x v="5"/>
+    <n v="714267"/>
+  </r>
+  <r>
+    <n v="163"/>
+    <x v="2"/>
+    <s v="K.M."/>
+    <x v="5"/>
+    <n v="677673"/>
+  </r>
+  <r>
+    <n v="164"/>
+    <x v="2"/>
+    <s v="K.M."/>
+    <x v="1"/>
+    <n v="359120"/>
+  </r>
+  <r>
+    <n v="165"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="7"/>
+    <n v="546545"/>
+  </r>
+  <r>
+    <n v="166"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="7"/>
+    <n v="75574"/>
+  </r>
+  <r>
+    <n v="167"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="1"/>
+    <n v="1245004"/>
+  </r>
+  <r>
+    <n v="168"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="2"/>
+    <n v="930723"/>
+  </r>
+  <r>
+    <n v="169"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="2"/>
+    <n v="617475"/>
+  </r>
+  <r>
+    <n v="170"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="1"/>
+    <n v="1429464"/>
+  </r>
+  <r>
+    <n v="171"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="2"/>
+    <n v="84875"/>
+  </r>
+  <r>
+    <n v="172"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="5"/>
+    <n v="541160"/>
+  </r>
+  <r>
+    <n v="173"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="5"/>
+    <n v="660696"/>
+  </r>
+  <r>
+    <n v="174"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="0"/>
+    <n v="773073"/>
+  </r>
+  <r>
+    <n v="175"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="0"/>
+    <n v="471527"/>
+  </r>
+  <r>
+    <n v="176"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="0"/>
+    <n v="613617"/>
+  </r>
+  <r>
+    <n v="177"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="5"/>
+    <n v="327443"/>
+  </r>
+  <r>
+    <n v="178"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="2"/>
+    <n v="560342"/>
+  </r>
+  <r>
+    <n v="179"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="8"/>
+    <n v="457223"/>
+  </r>
+  <r>
+    <n v="180"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="5"/>
+    <n v="918700"/>
+  </r>
+  <r>
+    <n v="181"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="8"/>
+    <n v="1247505"/>
+  </r>
+  <r>
+    <n v="182"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="1"/>
+    <n v="1014223"/>
+  </r>
+  <r>
+    <n v="183"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="5"/>
+    <n v="477407"/>
+  </r>
+  <r>
+    <n v="184"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="5"/>
+    <n v="805997"/>
+  </r>
+  <r>
+    <n v="185"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="5"/>
+    <n v="481634"/>
+  </r>
+  <r>
+    <n v="186"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="5"/>
+    <n v="1050226"/>
+  </r>
+  <r>
+    <n v="187"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="6"/>
+    <n v="849230"/>
+  </r>
+  <r>
+    <n v="188"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="8"/>
+    <n v="1546906"/>
+  </r>
+  <r>
+    <n v="189"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="5"/>
+    <n v="1063592"/>
+  </r>
+  <r>
+    <n v="190"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="2"/>
+    <n v="741429"/>
+  </r>
+  <r>
+    <n v="191"/>
+    <x v="2"/>
+    <s v="K.K."/>
+    <x v="8"/>
+    <n v="748503"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81FD1305-2B2C-46AE-8FED-4C068FAC09D0}" name="ピボットテーブル5" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A17:E28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="10">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="176" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="合計 / 8月" fld="4" showDataAs="percentOfRow" baseField="3" baseItem="5" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BAB62F87-932A-4269-93C3-86E90F29B895}" name="ピボットテーブル4" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="10">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="176" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="合計 / 8月" fld="4" showDataAs="percentOfCol" baseField="3" baseItem="5" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -266,9 +1895,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,26 +1930,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,26 +1965,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -545,20 +2140,792 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831D2C3A-5D55-4264-BD21-4E01971A6833}">
+  <dimension ref="A3:K28"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.48744224660393859</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.21280899176936868</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.14398528593845389</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.31281910029700738</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7">
+        <f>B5/$E5</f>
+        <v>1.5582240539057064</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" ref="I5:J5" si="0">C5/$E5</f>
+        <v>0.68029411109269322</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.46028291048003933</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.22165296161489001</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.24660176972437314</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.42603491351504202</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.27972602674000602</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" ref="H6:H14" si="1">B6/$E6</f>
+        <v>0.79239305758597656</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6:I14" si="2">C6/$E6</f>
+        <v>0.88158321411249829</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" ref="J6:J14" si="3">D6/$E6</f>
+        <v>1.5230435239800699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7">
+        <v>3.2944124089243368E-2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.22526926280576387</v>
+      </c>
+      <c r="D7" s="7">
+        <v>7.3922719984487489E-2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.1065973727458617</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.30905193290068511</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="2"/>
+        <v>2.113272184886088</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="3"/>
+        <v>0.69347600302238499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.11062398672903412</v>
+      </c>
+      <c r="C8" s="7">
+        <v>7.9060445020407835E-2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>9.6235458269306101E-2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>9.6668558884747319E-2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="1"/>
+        <v>1.1443636690697447</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="2"/>
+        <v>0.81785066346822566</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="3"/>
+        <v>0.995519736505459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
+        <v>3.0996569837523167E-2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.17851886656641766</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1.4790687377212633E-2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>7.5881072204580402E-2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.408488822534747</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="2"/>
+        <v>2.3526139178044159</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="3"/>
+        <v>0.19491932503715761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1.0743673538556221E-2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1.7469890991117908E-2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.16585657574923443</v>
+      </c>
+      <c r="E10" s="7">
+        <v>5.0776103007806231E-2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.2115891709315405</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="2"/>
+        <v>0.34405734107700464</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="3"/>
+        <v>3.2664297952077166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7">
+        <v>4.7453001955634934E-2</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1.7272839112681536E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4.4178536141834486E-2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3.6664358007629953E-2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2942542712942045</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="2"/>
+        <v>0.47110709286351093</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="3"/>
+        <v>1.2049450349748607</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7">
+        <v>5.3120601357811367E-2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>6.8963956293378722E-3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1.4805641658242897E-2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2.8480429820840841E-2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="1"/>
+        <v>1.8651615053555066</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="2"/>
+        <v>0.24214506848107206</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="3"/>
+        <v>0.5198531676445669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7">
+        <v>5.0228342733682598E-3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1.610153838053149E-2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2.0190181366186027E-2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1.238697829152015E-2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.40549310373836533</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="2"/>
+        <v>1.2998762088373277</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="3"/>
+        <v>1.6299521070451684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.66261661125732851</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.2251981048854183</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.11218528385725311</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="7">
+        <f>B19/B$28</f>
+        <v>1.5582240539057062</v>
+      </c>
+      <c r="I19" s="7">
+        <f>C19/C$28</f>
+        <v>0.68029411109269322</v>
+      </c>
+      <c r="J19" s="7">
+        <f>D19/D$28</f>
+        <v>0.46028291048003928</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.33695590905903566</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.29183093882445771</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.37121315211650663</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" ref="H20:H28" si="4">B20/B$28</f>
+        <v>0.79239305758597667</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" ref="I20:I28" si="5">C20/C$28</f>
+        <v>0.8815832141124984</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" ref="J20:J28" si="6">D20/D$28</f>
+        <v>1.5230435239800697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.13142073116371708</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.69955756397628166</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.16902170486000126</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="4"/>
+        <v>0.30905193290068506</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="5"/>
+        <v>2.113272184886088</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="6"/>
+        <v>0.69347600302238499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.48662730789219555</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.27073352023656028</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.24263917187124417</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="4"/>
+        <v>1.1443636690697447</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="5"/>
+        <v>0.81785066346822566</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="6"/>
+        <v>0.995519736505459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.17370510912473031</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.77878697930464014</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4.7507911570629571E-2</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="4"/>
+        <v>0.408488822534747</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="5"/>
+        <v>2.3526139178044163</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="6"/>
+        <v>0.19491932503715764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="7">
+        <v>8.9975827975435171E-2</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.11389347624662928</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.79613069577793549</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="4"/>
+        <v>0.21158917093154053</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="5"/>
+        <v>0.34405734107700464</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="6"/>
+        <v>3.2664297952077166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.55036653888169607</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.15595082006594918</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.29368264105235475</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="4"/>
+        <v>1.2942542712942045</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="5"/>
+        <v>0.47110709286351093</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" si="6"/>
+        <v>1.2049450349748605</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.79313818383724655</v>
+      </c>
+      <c r="C26" s="7">
+        <v>8.0157404922555936E-2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.12670441124019755</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="4"/>
+        <v>1.8651615053555068</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="5"/>
+        <v>0.24214506848107203</v>
+      </c>
+      <c r="J26" s="7">
+        <f t="shared" si="6"/>
+        <v>0.5198531676445669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.1724312146342924</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.43029868117721026</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.39727010418849734</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="4"/>
+        <v>0.40549310373836533</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="5"/>
+        <v>1.2998762088373277</v>
+      </c>
+      <c r="J27" s="7">
+        <f t="shared" si="6"/>
+        <v>1.6299521070451681</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.42523834078704698</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.3310305075604778</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.24373115165247519</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J28" s="7">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="249" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="4" width="19.6328125" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="249" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
